--- a/MPM/PCB Designs/EnableBoard/EnableBoard-BOM.xlsx
+++ b/MPM/PCB Designs/EnableBoard/EnableBoard-BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonas\Desktop\EXJOBB\EnableBoard\EnableBoard-23-8\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JonasHP\Documents\GitHub\MultiphaseMachines\MPM\PCB Designs\EnableBoard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF7902E4-42F8-4B9B-BB87-3B1F7471009C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF39E08B-9F9F-48D8-8FDE-6264D508747F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="3795" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EnableBoard" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="68">
   <si>
     <t>Reference</t>
   </si>
@@ -209,12 +209,27 @@
   </si>
   <si>
     <t>https://www.elfa.se/sv/skjutreglage-av-miniatyrtyp-1co-pa-pa-loedoeron-rnd-components-rnd-210-00581/p/30152605?q=&amp;pos=6&amp;origPos=13&amp;origPageSize=50&amp;track=true</t>
+  </si>
+  <si>
+    <t>Already Avaliable in Lab</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>3K3 avaliable, which will also work</t>
+  </si>
+  <si>
+    <t>No, (Could salvage from old board)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -776,14 +791,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>4433455</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>173181</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>494827</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>494826</xdr:colOff>
       <xdr:row>49</xdr:row>
       <xdr:rowOff>121227</xdr:rowOff>
     </xdr:to>
@@ -832,8 +847,8 @@
       <xdr:rowOff>138545</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>4173194</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1821880</xdr:colOff>
       <xdr:row>75</xdr:row>
       <xdr:rowOff>35244</xdr:rowOff>
     </xdr:to>
@@ -1173,23 +1188,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E53" sqref="E53"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="78.42578125" customWidth="1"/>
+    <col min="1" max="1" width="78.44140625" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="22.140625" customWidth="1"/>
-    <col min="4" max="4" width="45.7109375" customWidth="1"/>
-    <col min="5" max="5" width="199.140625" customWidth="1"/>
+    <col min="3" max="3" width="22.109375" customWidth="1"/>
+    <col min="4" max="4" width="34.21875" customWidth="1"/>
+    <col min="5" max="5" width="45.6640625" customWidth="1"/>
+    <col min="6" max="6" width="199.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1200,13 +1216,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1217,13 +1236,16 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1234,13 +1256,16 @@
         <v>9</v>
       </c>
       <c r="D3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1251,13 +1276,16 @@
         <v>11</v>
       </c>
       <c r="D4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1268,13 +1296,16 @@
         <v>14</v>
       </c>
       <c r="D5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E5" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -1285,13 +1316,16 @@
         <v>17</v>
       </c>
       <c r="D6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -1302,13 +1336,16 @@
         <v>21</v>
       </c>
       <c r="D7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -1319,13 +1356,16 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" t="s">
         <v>26</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -1336,13 +1376,16 @@
         <v>28</v>
       </c>
       <c r="D9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" t="s">
         <v>29</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -1353,13 +1396,16 @@
         <v>61</v>
       </c>
       <c r="D10" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -1370,13 +1416,16 @@
         <v>33</v>
       </c>
       <c r="D11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="F11" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>34</v>
       </c>
@@ -1387,13 +1436,16 @@
         <v>35</v>
       </c>
       <c r="D12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="F12" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>37</v>
       </c>
@@ -1404,13 +1456,16 @@
         <v>38</v>
       </c>
       <c r="D13" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="F13" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -1421,13 +1476,16 @@
         <v>40</v>
       </c>
       <c r="D14" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" t="s">
         <v>41</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="F14" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>43</v>
       </c>
@@ -1438,13 +1496,16 @@
         <v>44</v>
       </c>
       <c r="D15" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="F15" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>46</v>
       </c>
@@ -1455,13 +1516,16 @@
         <v>47</v>
       </c>
       <c r="D16" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" t="s">
         <v>45</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="F16" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>48</v>
       </c>
@@ -1472,28 +1536,31 @@
         <v>49</v>
       </c>
       <c r="D17" t="s">
+        <v>65</v>
+      </c>
+      <c r="E17" t="s">
         <v>50</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="F17" s="2" t="s">
         <v>59</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
-    <hyperlink ref="E3" r:id="rId2"/>
-    <hyperlink ref="E4" r:id="rId3"/>
-    <hyperlink ref="E5" r:id="rId4"/>
-    <hyperlink ref="E6" r:id="rId5"/>
-    <hyperlink ref="E7" r:id="rId6"/>
-    <hyperlink ref="E11" r:id="rId7"/>
-    <hyperlink ref="E12" r:id="rId8"/>
-    <hyperlink ref="E13" r:id="rId9"/>
-    <hyperlink ref="E17" r:id="rId10"/>
-    <hyperlink ref="E14" r:id="rId11"/>
-    <hyperlink ref="E10" r:id="rId12"/>
-    <hyperlink ref="E16" r:id="rId13"/>
-    <hyperlink ref="E15" r:id="rId14"/>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="F3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="F4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="F5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="F6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="F7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="F11" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="F12" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="F13" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="F17" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="F14" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="F10" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="F16" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="F15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId15"/>
